--- a/tables/1974/Table 12.xlsx
+++ b/tables/1974/Table 12.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emberu\Desktop\Cassava\1974\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAdetuyi\OneDrive - CGIAR\WORK\MR PRASAD\2022\7. August\Annual Report\New_Tables\1974\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Table 12.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Effect of morphological positions of cuttings on cassava performance.</t>
   </si>
@@ -60,12 +56,6 @@
     <t>Primary</t>
   </si>
   <si>
-    <t>Morphological</t>
-  </si>
-  <si>
-    <t>Positions</t>
-  </si>
-  <si>
     <t>Secondary</t>
   </si>
   <si>
@@ -73,6 +63,12 @@
   </si>
   <si>
     <t>LSD 0.05</t>
+  </si>
+  <si>
+    <t>Table name:</t>
+  </si>
+  <si>
+    <t>Morphological Positions</t>
   </si>
 </sst>
 </file>
@@ -82,8 +78,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -107,16 +111,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,219 +511,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>53101</v>
+      </c>
+      <c r="B5" s="1">
+        <v>38.4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>32.1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>60506</v>
+      </c>
+      <c r="B6" s="1">
+        <v>35.1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>21.9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>53101</v>
       </c>
-      <c r="B4">
-        <v>38.4</v>
-      </c>
-      <c r="C4">
-        <v>32.1</v>
-      </c>
-      <c r="D4">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="E4">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B8" s="1">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>60506</v>
       </c>
-      <c r="B5">
-        <v>35.1</v>
-      </c>
-      <c r="C5">
-        <v>24.1</v>
-      </c>
-      <c r="D5">
-        <v>21.9</v>
-      </c>
-      <c r="E5">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B9" s="1">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>53101</v>
-      </c>
-      <c r="B7">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="C7">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="D7">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="E7">
-        <v>0.10100000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>60506</v>
-      </c>
-      <c r="B8">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="C8">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="E8">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="1">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.435</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="D9">
-        <v>0.435</v>
-      </c>
-      <c r="E9">
-        <v>9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="1">
+        <v>81.7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>78.5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>180</v>
+      </c>
+      <c r="C14" s="1">
+        <v>193</v>
+      </c>
+      <c r="D14" s="1">
+        <v>141</v>
+      </c>
+      <c r="E14" s="2">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
-        <v>81.7</v>
-      </c>
-      <c r="C11">
-        <v>78.5</v>
-      </c>
-      <c r="D11">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="E11">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D12">
-        <v>1.9</v>
-      </c>
-      <c r="E12">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>180</v>
-      </c>
-      <c r="C13">
-        <v>193</v>
-      </c>
-      <c r="D13">
-        <v>141</v>
-      </c>
-      <c r="E13">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
+      <c r="B15" s="4">
         <v>52.8</v>
       </c>
-      <c r="C14">
-        <v>48.4</v>
-      </c>
-      <c r="D14">
+      <c r="C15" s="4">
+        <v>49.4</v>
+      </c>
+      <c r="D15" s="4">
         <v>42.7</v>
       </c>
-      <c r="E14">
+      <c r="E15" s="5">
         <v>4.9000000000000004</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>